--- a/Loaz Acc.xlsx
+++ b/Loaz Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t xml:space="preserve">حســــــــــــــــــاب السيد / حاتم عبد الفتاح </t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>عربة رقم 7175</t>
+  </si>
+  <si>
+    <t>عربة رقم  8269</t>
+  </si>
+  <si>
+    <t>عربة رقم 19414</t>
+  </si>
+  <si>
+    <t>عربة رقم 3868</t>
+  </si>
+  <si>
+    <t>عربة رقم 5435</t>
+  </si>
+  <si>
+    <t>عربة رقم 5099</t>
   </si>
 </sst>
 </file>
@@ -326,16 +341,16 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -648,21 +663,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>43239</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -679,7 +694,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>43277</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -696,7 +711,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>43279</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -710,7 +725,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>43279</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -731,7 +746,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>43285</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -745,7 +760,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>43285</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -766,7 +781,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>43289</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -780,7 +795,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>43289</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -801,7 +816,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>43290</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -815,7 +830,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>43290</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -836,7 +851,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>43362</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -850,7 +865,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="2">
         <v>43362</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -864,7 +879,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="2">
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -878,7 +893,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -892,7 +907,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>43362</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -906,7 +921,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -920,7 +935,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -934,7 +949,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -956,7 +971,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>43363</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -970,7 +985,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -984,7 +999,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="2">
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -998,7 +1013,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="2">
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1012,7 +1027,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="2">
         <v>43363</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1034,7 +1049,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="2">
         <v>43365</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1048,7 +1063,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="2">
         <v>43365</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1062,7 +1077,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="2">
         <v>43365</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1076,7 +1091,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="2">
         <v>43365</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1098,7 +1113,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="2">
         <v>43366</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1112,7 +1127,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="2">
         <v>43366</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1126,7 +1141,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <v>43366</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1140,7 +1155,7 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="2">
         <v>43366</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1154,7 +1169,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="2">
         <v>43366</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1168,7 +1183,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="2">
         <v>43366</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1190,7 +1205,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="2">
         <v>43368</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1208,7 +1223,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <v>43367</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1222,7 +1237,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="2">
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1236,7 +1251,7 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="2">
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1250,7 +1265,7 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="2">
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1264,7 +1279,7 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="2">
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1278,7 +1293,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="2">
         <v>43367</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1292,7 +1307,7 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="2">
         <v>43367</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1306,7 +1321,7 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="2">
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1328,7 +1343,7 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="2">
         <v>43368</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1342,7 +1357,7 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="2">
         <v>43368</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1356,7 +1371,7 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="2">
         <v>43368</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1370,7 +1385,7 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="2">
         <v>43368</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1392,7 +1407,7 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="2">
         <v>43369</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1406,7 +1421,7 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="2">
         <v>43369</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1420,7 +1435,7 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="2">
         <v>43369</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1434,7 +1449,7 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="2">
         <v>43369</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1448,7 +1463,7 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="2">
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1462,7 +1477,7 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="2">
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1476,7 +1491,7 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="2">
         <v>43369</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1490,7 +1505,7 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="2">
         <v>43369</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1504,7 +1519,7 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="2">
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1518,7 +1533,7 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="2">
         <v>43369</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1532,7 +1547,7 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="2">
         <v>43369</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1553,7 +1568,7 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="2">
         <v>43370</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1567,7 +1582,7 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="2">
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1581,7 +1596,7 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="2">
         <v>43370</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1595,7 +1610,7 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="2">
         <v>43370</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1609,7 +1624,7 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="2">
         <v>43370</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1623,7 +1638,7 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="2">
         <v>43370</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1645,7 +1660,7 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="2">
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1659,7 +1674,7 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="2">
         <v>43372</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1673,7 +1688,7 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="2">
         <v>43372</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1687,7 +1702,7 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="2">
         <v>43372</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1701,7 +1716,7 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="2">
         <v>43372</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1722,7 +1737,7 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="2">
         <v>43375</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1736,7 +1751,7 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="2">
         <v>43375</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1757,7 +1772,7 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="2">
         <v>43376</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1771,7 +1786,7 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="2">
         <v>43376</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1792,40 +1807,84 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
+      <c r="B74" s="2">
+        <v>43377</v>
+      </c>
       <c r="C74" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="D74" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
+      <c r="B75" s="2">
+        <v>43377</v>
+      </c>
       <c r="C75" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="D75" s="1">
+        <v>700</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>75</v>
       </c>
+      <c r="B76" s="2">
+        <v>43377</v>
+      </c>
       <c r="C76" s="1" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="D76" s="1">
+        <v>700</v>
+      </c>
+      <c r="F76" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G76" s="1">
+        <f>G73-F76</f>
+        <v>2024</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>76</v>
       </c>
+      <c r="B77" s="2">
+        <v>43382</v>
+      </c>
       <c r="C77" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="D77" s="1">
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>77</v>
       </c>
+      <c r="B78" s="2">
+        <v>43382</v>
+      </c>
       <c r="C78" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="D78" s="1">
+        <v>700</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1400</v>
+      </c>
+      <c r="G78" s="1">
+        <f>G76-F78</f>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:7">

--- a/Loaz Acc.xlsx
+++ b/Loaz Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t xml:space="preserve">حســــــــــــــــــاب السيد / حاتم عبد الفتاح </t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">متبقي حساب قديم </t>
   </si>
   <si>
-    <t xml:space="preserve">عربة رقم </t>
-  </si>
-  <si>
     <t xml:space="preserve">اذن خروج رقم 457 </t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>عربة رقم 5099</t>
+  </si>
+  <si>
+    <t>عربة رقم 18082</t>
   </si>
 </sst>
 </file>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -351,6 +351,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -698,7 +699,7 @@
         <v>43277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>28181</v>
@@ -715,7 +716,7 @@
         <v>43279</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>700</v>
@@ -729,7 +730,7 @@
         <v>43279</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>800</v>
@@ -750,7 +751,7 @@
         <v>43285</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <v>800</v>
@@ -764,7 +765,7 @@
         <v>43285</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <v>1000</v>
@@ -785,7 +786,7 @@
         <v>43289</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>700</v>
@@ -799,7 +800,7 @@
         <v>43289</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1">
         <v>700</v>
@@ -820,7 +821,7 @@
         <v>43290</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
@@ -834,7 +835,7 @@
         <v>43290</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>700</v>
@@ -855,7 +856,7 @@
         <v>43362</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1">
         <v>800</v>
@@ -869,7 +870,7 @@
         <v>43362</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>800</v>
@@ -883,7 +884,7 @@
         <v>43362</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>800</v>
@@ -897,7 +898,7 @@
         <v>43362</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
         <v>800</v>
@@ -911,7 +912,7 @@
         <v>43362</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
         <v>800</v>
@@ -925,7 +926,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1">
         <v>800</v>
@@ -939,7 +940,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1">
         <v>700</v>
@@ -953,7 +954,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>800</v>
@@ -975,7 +976,7 @@
         <v>43363</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
         <v>700</v>
@@ -989,7 +990,7 @@
         <v>43363</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1">
         <v>700</v>
@@ -1003,7 +1004,7 @@
         <v>43363</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1">
         <v>800</v>
@@ -1017,7 +1018,7 @@
         <v>43363</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1">
         <v>800</v>
@@ -1031,7 +1032,7 @@
         <v>43363</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1">
         <v>800</v>
@@ -1053,7 +1054,7 @@
         <v>43365</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <v>800</v>
@@ -1067,7 +1068,7 @@
         <v>43365</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
         <v>800</v>
@@ -1081,7 +1082,7 @@
         <v>43365</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="1">
         <v>800</v>
@@ -1095,7 +1096,7 @@
         <v>43365</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1">
         <v>800</v>
@@ -1117,7 +1118,7 @@
         <v>43366</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1">
         <v>800</v>
@@ -1131,7 +1132,7 @@
         <v>43366</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1">
         <v>800</v>
@@ -1145,7 +1146,7 @@
         <v>43366</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="1">
         <v>800</v>
@@ -1159,7 +1160,7 @@
         <v>43366</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="1">
         <v>800</v>
@@ -1173,7 +1174,7 @@
         <v>43366</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="1">
         <v>700</v>
@@ -1187,7 +1188,7 @@
         <v>43366</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1">
         <v>700</v>
@@ -1209,7 +1210,7 @@
         <v>43368</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1">
         <v>26962</v>
@@ -1227,7 +1228,7 @@
         <v>43367</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="1">
         <v>1000</v>
@@ -1241,7 +1242,7 @@
         <v>43367</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1">
         <v>700</v>
@@ -1255,7 +1256,7 @@
         <v>43367</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" s="1">
         <v>600</v>
@@ -1269,7 +1270,7 @@
         <v>43367</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1">
         <v>700</v>
@@ -1283,7 +1284,7 @@
         <v>43367</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1">
         <v>600</v>
@@ -1297,7 +1298,7 @@
         <v>43367</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1">
         <v>600</v>
@@ -1311,7 +1312,7 @@
         <v>43367</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="1">
         <v>600</v>
@@ -1325,7 +1326,7 @@
         <v>43367</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" s="1">
         <v>700</v>
@@ -1347,7 +1348,7 @@
         <v>43368</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1">
         <v>600</v>
@@ -1361,7 +1362,7 @@
         <v>43368</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1">
         <v>700</v>
@@ -1375,7 +1376,7 @@
         <v>43368</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="1">
         <v>700</v>
@@ -1389,7 +1390,7 @@
         <v>43368</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1">
         <v>700</v>
@@ -1411,7 +1412,7 @@
         <v>43369</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1">
         <v>800</v>
@@ -1425,7 +1426,7 @@
         <v>43369</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1">
         <v>800</v>
@@ -1439,7 +1440,7 @@
         <v>43369</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
         <v>800</v>
@@ -1453,7 +1454,7 @@
         <v>43369</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" s="1">
         <v>700</v>
@@ -1467,7 +1468,7 @@
         <v>43369</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" s="1">
         <v>700</v>
@@ -1481,7 +1482,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="1">
         <v>700</v>
@@ -1495,7 +1496,7 @@
         <v>43369</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" s="1">
         <v>700</v>
@@ -1509,7 +1510,7 @@
         <v>43369</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" s="1">
         <v>700</v>
@@ -1523,7 +1524,7 @@
         <v>43369</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1">
         <v>700</v>
@@ -1537,7 +1538,7 @@
         <v>43369</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="1">
         <v>800</v>
@@ -1551,7 +1552,7 @@
         <v>43369</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1">
         <v>800</v>
@@ -1572,7 +1573,7 @@
         <v>43370</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D59" s="1">
         <v>600</v>
@@ -1586,7 +1587,7 @@
         <v>43370</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D60" s="1">
         <v>600</v>
@@ -1600,7 +1601,7 @@
         <v>43370</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D61" s="1">
         <v>700</v>
@@ -1614,7 +1615,7 @@
         <v>43370</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="1">
         <v>700</v>
@@ -1628,7 +1629,7 @@
         <v>43370</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63" s="1">
         <v>800</v>
@@ -1642,7 +1643,7 @@
         <v>43370</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="1">
         <v>600</v>
@@ -1664,7 +1665,7 @@
         <v>43372</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" s="1">
         <v>700</v>
@@ -1678,7 +1679,7 @@
         <v>43372</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="1">
         <v>800</v>
@@ -1692,7 +1693,7 @@
         <v>43372</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="1">
         <v>800</v>
@@ -1706,7 +1707,7 @@
         <v>43372</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="1">
         <v>800</v>
@@ -1720,7 +1721,7 @@
         <v>43372</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1">
         <v>800</v>
@@ -1741,7 +1742,7 @@
         <v>43375</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D70" s="1">
         <v>700</v>
@@ -1755,7 +1756,7 @@
         <v>43375</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="1">
         <v>600</v>
@@ -1776,7 +1777,7 @@
         <v>43376</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72" s="1">
         <v>700</v>
@@ -1790,7 +1791,7 @@
         <v>43376</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D73" s="1">
         <v>600</v>
@@ -1811,7 +1812,7 @@
         <v>43377</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D74" s="1">
         <v>600</v>
@@ -1825,7 +1826,7 @@
         <v>43377</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D75" s="1">
         <v>700</v>
@@ -1839,7 +1840,7 @@
         <v>43377</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D76" s="1">
         <v>700</v>
@@ -1860,7 +1861,7 @@
         <v>43382</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" s="1">
         <v>700</v>
@@ -1874,7 +1875,7 @@
         <v>43382</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="1">
         <v>700</v>
@@ -1891,386 +1892,264 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
+      <c r="B79" s="6">
+        <v>43383</v>
+      </c>
       <c r="C79" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="D79" s="1">
+        <v>600</v>
+      </c>
+      <c r="F79" s="1">
+        <v>600</v>
+      </c>
+      <c r="G79" s="1">
+        <f>G78-F79</f>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+    </row>
+    <row r="82" spans="1:1">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+    </row>
+    <row r="83" spans="1:1">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+    </row>
+    <row r="84" spans="1:1">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+    </row>
+    <row r="87" spans="1:1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+    </row>
+    <row r="88" spans="1:1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+    </row>
+    <row r="90" spans="1:1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+    </row>
+    <row r="91" spans="1:1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+    </row>
+    <row r="92" spans="1:1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+    </row>
+    <row r="94" spans="1:1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+    </row>
+    <row r="95" spans="1:1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+    </row>
+    <row r="96" spans="1:1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+    </row>
+    <row r="97" spans="1:1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+    </row>
+    <row r="98" spans="1:1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+    </row>
+    <row r="99" spans="1:1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+    </row>
+    <row r="100" spans="1:1">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+    </row>
+    <row r="101" spans="1:1">
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+    </row>
+    <row r="117" spans="1:1">
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+    </row>
+    <row r="118" spans="1:1">
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+    </row>
+    <row r="119" spans="1:1">
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+    </row>
+    <row r="120" spans="1:1">
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+    </row>
+    <row r="121" spans="1:1">
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+    </row>
+    <row r="122" spans="1:1">
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+    </row>
+    <row r="123" spans="1:1">
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+    </row>
+    <row r="124" spans="1:1">
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+    </row>
+    <row r="125" spans="1:1">
       <c r="A125" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:1">
       <c r="A126" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:1">
       <c r="A127" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:1">
       <c r="A128" s="1">
         <v>127</v>
       </c>
